--- a/src/Presentation/CTM.Win/DataTemplate/Entrust/Founder_N.xlsx
+++ b/src/Presentation/CTM.Win/DataTemplate/Entrust/Founder_N.xlsx
@@ -14,71 +14,18 @@
   <sheets>
     <sheet name="当日委托--方正普通" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
-  <si>
-    <t>证券代码</t>
-  </si>
-  <si>
-    <t>证券名称</t>
-  </si>
-  <si>
-    <t>操作</t>
-  </si>
-  <si>
-    <t>成交数量</t>
-  </si>
-  <si>
-    <t>成交均价</t>
-  </si>
-  <si>
-    <t>合同编号</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="2">
   <si>
     <t>交易类别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>日内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>委托时间</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>委托数量</t>
-  </si>
-  <si>
-    <t>撤消数量</t>
-  </si>
-  <si>
-    <t>委托价格</t>
-  </si>
-  <si>
-    <t>申报编号</t>
-  </si>
-  <si>
-    <t>帝王洁具</t>
-  </si>
-  <si>
-    <t>买入</t>
-  </si>
-  <si>
-    <t>买卖委托(已成)</t>
-  </si>
-  <si>
-    <t>波段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -125,11 +72,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -436,179 +380,1269 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="13" max="13" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1" t="str">
+        <f>"委托时间"</f>
+        <v>委托时间</v>
+      </c>
+      <c r="B1" t="str">
+        <f>"证券代码"</f>
+        <v>证券代码</v>
+      </c>
+      <c r="C1" t="str">
+        <f>"证券名称"</f>
+        <v>证券名称</v>
+      </c>
+      <c r="D1" t="str">
+        <f>"买卖标志"</f>
+        <v>买卖标志</v>
+      </c>
+      <c r="E1" t="str">
+        <f>"委托类别"</f>
+        <v>委托类别</v>
+      </c>
+      <c r="F1" t="str">
+        <f>"状态说明"</f>
+        <v>状态说明</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"委托价格"</f>
+        <v>委托价格</v>
+      </c>
+      <c r="H1" t="str">
+        <f>"委托数量"</f>
+        <v>委托数量</v>
+      </c>
+      <c r="I1" t="str">
+        <f>"委托编号"</f>
+        <v>委托编号</v>
+      </c>
+      <c r="J1" t="str">
+        <f>"成交价格"</f>
+        <v>成交价格</v>
+      </c>
+      <c r="K1" t="str">
+        <f>"成交数量"</f>
+        <v>成交数量</v>
+      </c>
+      <c r="L1" t="str">
+        <f>"报价方式"</f>
+        <v>报价方式</v>
+      </c>
+      <c r="M1" t="str">
+        <f>"股东代码"</f>
+        <v>股东代码</v>
+      </c>
+      <c r="N1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>0.59848379629629633</v>
-      </c>
-      <c r="B2">
-        <v>2798</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2">
-        <v>6300</v>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>93551</v>
+      </c>
+      <c r="B2" t="str">
+        <f>"002648"</f>
+        <v>002648</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"卫星石化"</f>
+        <v>卫星石化</v>
+      </c>
+      <c r="D2" t="str">
+        <f>"卖出"</f>
+        <v>卖出</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E24" si="0">"买卖"</f>
+        <v>买卖</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"已撤"</f>
+        <v>已撤</v>
       </c>
       <c r="G2">
-        <v>6300</v>
+        <v>13.92</v>
       </c>
       <c r="H2">
+        <v>1000</v>
+      </c>
+      <c r="I2" t="str">
+        <f>"314"</f>
+        <v>314</v>
+      </c>
+      <c r="J2">
         <v>0</v>
       </c>
-      <c r="I2">
-        <v>51.91</v>
-      </c>
-      <c r="J2">
-        <v>51.91</v>
-      </c>
       <c r="K2">
-        <v>1709</v>
-      </c>
-      <c r="L2">
-        <v>1709</v>
-      </c>
-      <c r="M2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>0.60450231481481487</v>
-      </c>
-      <c r="B3">
-        <v>2798</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3">
-        <v>1200</v>
+        <v>0</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" ref="L2:L24" si="1">"买卖"</f>
+        <v>买卖</v>
+      </c>
+      <c r="M2" t="str">
+        <f>"0175109875"</f>
+        <v>0175109875</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>94158</v>
+      </c>
+      <c r="B3" t="str">
+        <f>"002648"</f>
+        <v>002648</v>
+      </c>
+      <c r="C3" t="str">
+        <f>"卫星石化"</f>
+        <v>卫星石化</v>
+      </c>
+      <c r="D3" t="str">
+        <f>"卖出"</f>
+        <v>卖出</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>买卖</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F24" si="2">"已成"</f>
+        <v>已成</v>
       </c>
       <c r="G3">
-        <v>1200</v>
+        <v>13.83</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>51.22</v>
+        <v>2000</v>
+      </c>
+      <c r="I3" t="str">
+        <f>"455"</f>
+        <v>455</v>
       </c>
       <c r="J3">
-        <v>51.22</v>
+        <v>13.83</v>
       </c>
       <c r="K3">
-        <v>1757</v>
-      </c>
-      <c r="L3">
-        <v>1757</v>
-      </c>
-      <c r="M3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>0.60478009259259258</v>
-      </c>
-      <c r="B4">
-        <v>2798</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4">
-        <v>1200</v>
+        <v>2000</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="1"/>
+        <v>买卖</v>
+      </c>
+      <c r="M3" t="str">
+        <f>"0175109875"</f>
+        <v>0175109875</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>95035</v>
+      </c>
+      <c r="B4" t="str">
+        <f>"002648"</f>
+        <v>002648</v>
+      </c>
+      <c r="C4" t="str">
+        <f>"卫星石化"</f>
+        <v>卫星石化</v>
+      </c>
+      <c r="D4" t="str">
+        <f>"卖出"</f>
+        <v>卖出</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>买卖</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="2"/>
+        <v>已成</v>
       </c>
       <c r="G4">
-        <v>1200</v>
+        <v>13.76</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>51.12</v>
+        <v>3000</v>
+      </c>
+      <c r="I4" t="str">
+        <f>"634"</f>
+        <v>634</v>
       </c>
       <c r="J4">
-        <v>51.12</v>
+        <v>13.76</v>
       </c>
       <c r="K4">
-        <v>1762</v>
-      </c>
-      <c r="L4">
-        <v>1762</v>
-      </c>
-      <c r="M4" t="s">
-        <v>18</v>
+        <v>3000</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="1"/>
+        <v>买卖</v>
+      </c>
+      <c r="M4" t="str">
+        <f>"0175109875"</f>
+        <v>0175109875</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>103132</v>
+      </c>
+      <c r="B5" t="str">
+        <f>"000830"</f>
+        <v>000830</v>
+      </c>
+      <c r="C5" t="str">
+        <f>"鲁西化工"</f>
+        <v>鲁西化工</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" ref="D5:D24" si="3">"买入"</f>
+        <v>买入</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>买卖</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="2"/>
+        <v>已成</v>
+      </c>
+      <c r="G5">
+        <v>6.28</v>
+      </c>
+      <c r="H5">
+        <v>3000</v>
+      </c>
+      <c r="I5" t="str">
+        <f>"1147"</f>
+        <v>1147</v>
+      </c>
+      <c r="J5">
+        <v>6.28</v>
+      </c>
+      <c r="K5">
+        <v>3000</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="1"/>
+        <v>买卖</v>
+      </c>
+      <c r="M5" t="str">
+        <f>"0175109875"</f>
+        <v>0175109875</v>
+      </c>
+      <c r="N5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>103439</v>
+      </c>
+      <c r="B6" t="str">
+        <f>"000830"</f>
+        <v>000830</v>
+      </c>
+      <c r="C6" t="str">
+        <f>"鲁西化工"</f>
+        <v>鲁西化工</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="3"/>
+        <v>买入</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>买卖</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="2"/>
+        <v>已成</v>
+      </c>
+      <c r="G6">
+        <v>6.26</v>
+      </c>
+      <c r="H6">
+        <v>1000</v>
+      </c>
+      <c r="I6" t="str">
+        <f>"1163"</f>
+        <v>1163</v>
+      </c>
+      <c r="J6">
+        <v>6.26</v>
+      </c>
+      <c r="K6">
+        <v>1000</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="1"/>
+        <v>买卖</v>
+      </c>
+      <c r="M6" t="str">
+        <f>"0175109875"</f>
+        <v>0175109875</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>104109</v>
+      </c>
+      <c r="B7" t="str">
+        <f>"601258"</f>
+        <v>601258</v>
+      </c>
+      <c r="C7" t="str">
+        <f>"庞大集团"</f>
+        <v>庞大集团</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="3"/>
+        <v>买入</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>买卖</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="2"/>
+        <v>已成</v>
+      </c>
+      <c r="G7">
+        <v>3.25</v>
+      </c>
+      <c r="H7">
+        <v>5000</v>
+      </c>
+      <c r="I7" t="str">
+        <f>"1233"</f>
+        <v>1233</v>
+      </c>
+      <c r="J7">
+        <v>3.24</v>
+      </c>
+      <c r="K7">
+        <v>5000</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="1"/>
+        <v>买卖</v>
+      </c>
+      <c r="M7" t="str">
+        <f>"A163787833"</f>
+        <v>A163787833</v>
+      </c>
+      <c r="N7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>104123</v>
+      </c>
+      <c r="B8" t="str">
+        <f>"601258"</f>
+        <v>601258</v>
+      </c>
+      <c r="C8" t="str">
+        <f>"庞大集团"</f>
+        <v>庞大集团</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="3"/>
+        <v>买入</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>买卖</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="2"/>
+        <v>已成</v>
+      </c>
+      <c r="G8">
+        <v>3.24</v>
+      </c>
+      <c r="H8">
+        <v>2000</v>
+      </c>
+      <c r="I8" t="str">
+        <f>"1236"</f>
+        <v>1236</v>
+      </c>
+      <c r="J8">
+        <v>3.24</v>
+      </c>
+      <c r="K8">
+        <v>2000</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="1"/>
+        <v>买卖</v>
+      </c>
+      <c r="M8" t="str">
+        <f>"A163787833"</f>
+        <v>A163787833</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>104140</v>
+      </c>
+      <c r="B9" t="str">
+        <f>"601258"</f>
+        <v>601258</v>
+      </c>
+      <c r="C9" t="str">
+        <f>"庞大集团"</f>
+        <v>庞大集团</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="3"/>
+        <v>买入</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>买卖</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="2"/>
+        <v>已成</v>
+      </c>
+      <c r="G9">
+        <v>3.24</v>
+      </c>
+      <c r="H9">
+        <v>1000</v>
+      </c>
+      <c r="I9" t="str">
+        <f>"1238"</f>
+        <v>1238</v>
+      </c>
+      <c r="J9">
+        <v>3.24</v>
+      </c>
+      <c r="K9">
+        <v>1000</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="1"/>
+        <v>买卖</v>
+      </c>
+      <c r="M9" t="str">
+        <f>"A163787833"</f>
+        <v>A163787833</v>
+      </c>
+      <c r="N9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>104459</v>
+      </c>
+      <c r="B10" t="str">
+        <f>"000830"</f>
+        <v>000830</v>
+      </c>
+      <c r="C10" t="str">
+        <f>"鲁西化工"</f>
+        <v>鲁西化工</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="3"/>
+        <v>买入</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>买卖</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="2"/>
+        <v>已成</v>
+      </c>
+      <c r="G10">
+        <v>6.25</v>
+      </c>
+      <c r="H10">
+        <v>1000</v>
+      </c>
+      <c r="I10" t="str">
+        <f>"1272"</f>
+        <v>1272</v>
+      </c>
+      <c r="J10">
+        <v>6.25</v>
+      </c>
+      <c r="K10">
+        <v>1000</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="1"/>
+        <v>买卖</v>
+      </c>
+      <c r="M10" t="str">
+        <f>"0175109875"</f>
+        <v>0175109875</v>
+      </c>
+      <c r="N10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>104534</v>
+      </c>
+      <c r="B11" t="str">
+        <f>"601258"</f>
+        <v>601258</v>
+      </c>
+      <c r="C11" t="str">
+        <f>"庞大集团"</f>
+        <v>庞大集团</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="3"/>
+        <v>买入</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>买卖</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="2"/>
+        <v>已成</v>
+      </c>
+      <c r="G11">
+        <v>3.23</v>
+      </c>
+      <c r="H11">
+        <v>1000</v>
+      </c>
+      <c r="I11" t="str">
+        <f>"1273"</f>
+        <v>1273</v>
+      </c>
+      <c r="J11">
+        <v>3.23</v>
+      </c>
+      <c r="K11">
+        <v>1000</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="1"/>
+        <v>买卖</v>
+      </c>
+      <c r="M11" t="str">
+        <f>"A163787833"</f>
+        <v>A163787833</v>
+      </c>
+      <c r="N11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>104659</v>
+      </c>
+      <c r="B12" t="str">
+        <f>"601258"</f>
+        <v>601258</v>
+      </c>
+      <c r="C12" t="str">
+        <f>"庞大集团"</f>
+        <v>庞大集团</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="3"/>
+        <v>买入</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>买卖</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="2"/>
+        <v>已成</v>
+      </c>
+      <c r="G12">
+        <v>3.22</v>
+      </c>
+      <c r="H12">
+        <v>500</v>
+      </c>
+      <c r="I12" t="str">
+        <f>"1285"</f>
+        <v>1285</v>
+      </c>
+      <c r="J12">
+        <v>3.22</v>
+      </c>
+      <c r="K12">
+        <v>500</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="1"/>
+        <v>买卖</v>
+      </c>
+      <c r="M12" t="str">
+        <f>"A163787833"</f>
+        <v>A163787833</v>
+      </c>
+      <c r="N12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>104804</v>
+      </c>
+      <c r="B13" t="str">
+        <f>"601258"</f>
+        <v>601258</v>
+      </c>
+      <c r="C13" t="str">
+        <f>"庞大集团"</f>
+        <v>庞大集团</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="3"/>
+        <v>买入</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>买卖</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="2"/>
+        <v>已成</v>
+      </c>
+      <c r="G13">
+        <v>3.22</v>
+      </c>
+      <c r="H13">
+        <v>300</v>
+      </c>
+      <c r="I13" t="str">
+        <f>"1302"</f>
+        <v>1302</v>
+      </c>
+      <c r="J13">
+        <v>3.22</v>
+      </c>
+      <c r="K13">
+        <v>300</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="1"/>
+        <v>买卖</v>
+      </c>
+      <c r="M13" t="str">
+        <f>"A163787833"</f>
+        <v>A163787833</v>
+      </c>
+      <c r="N13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>110116</v>
+      </c>
+      <c r="B14" t="str">
+        <f>"000830"</f>
+        <v>000830</v>
+      </c>
+      <c r="C14" t="str">
+        <f>"鲁西化工"</f>
+        <v>鲁西化工</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="3"/>
+        <v>买入</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>买卖</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="2"/>
+        <v>已成</v>
+      </c>
+      <c r="G14">
+        <v>6.24</v>
+      </c>
+      <c r="H14">
+        <v>1000</v>
+      </c>
+      <c r="I14" t="str">
+        <f>"1406"</f>
+        <v>1406</v>
+      </c>
+      <c r="J14">
+        <v>6.24</v>
+      </c>
+      <c r="K14">
+        <v>1000</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="1"/>
+        <v>买卖</v>
+      </c>
+      <c r="M14" t="str">
+        <f>"0175109875"</f>
+        <v>0175109875</v>
+      </c>
+      <c r="N14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>112827</v>
+      </c>
+      <c r="B15" t="str">
+        <f>"601258"</f>
+        <v>601258</v>
+      </c>
+      <c r="C15" t="str">
+        <f>"庞大集团"</f>
+        <v>庞大集团</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="3"/>
+        <v>买入</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>买卖</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="2"/>
+        <v>已成</v>
+      </c>
+      <c r="G15">
+        <v>3.22</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
+      <c r="I15" t="str">
+        <f>"1540"</f>
+        <v>1540</v>
+      </c>
+      <c r="J15">
+        <v>3.22</v>
+      </c>
+      <c r="K15">
+        <v>100</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="1"/>
+        <v>买卖</v>
+      </c>
+      <c r="M15" t="str">
+        <f>"A163787833"</f>
+        <v>A163787833</v>
+      </c>
+      <c r="N15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>130733</v>
+      </c>
+      <c r="B16" t="str">
+        <f>"000830"</f>
+        <v>000830</v>
+      </c>
+      <c r="C16" t="str">
+        <f>"鲁西化工"</f>
+        <v>鲁西化工</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="3"/>
+        <v>买入</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>买卖</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="2"/>
+        <v>已成</v>
+      </c>
+      <c r="G16">
+        <v>6.21</v>
+      </c>
+      <c r="H16">
+        <v>1000</v>
+      </c>
+      <c r="I16" t="str">
+        <f>"1645"</f>
+        <v>1645</v>
+      </c>
+      <c r="J16">
+        <v>6.21</v>
+      </c>
+      <c r="K16">
+        <v>1000</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="1"/>
+        <v>买卖</v>
+      </c>
+      <c r="M16" t="str">
+        <f>"0175109875"</f>
+        <v>0175109875</v>
+      </c>
+      <c r="N16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>130821</v>
+      </c>
+      <c r="B17" t="str">
+        <f>"000830"</f>
+        <v>000830</v>
+      </c>
+      <c r="C17" t="str">
+        <f>"鲁西化工"</f>
+        <v>鲁西化工</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="3"/>
+        <v>买入</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>买卖</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="2"/>
+        <v>已成</v>
+      </c>
+      <c r="G17">
+        <v>6.2</v>
+      </c>
+      <c r="H17">
+        <v>1000</v>
+      </c>
+      <c r="I17" t="str">
+        <f>"1650"</f>
+        <v>1650</v>
+      </c>
+      <c r="J17">
+        <v>6.2</v>
+      </c>
+      <c r="K17">
+        <v>1000</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="1"/>
+        <v>买卖</v>
+      </c>
+      <c r="M17" t="str">
+        <f>"0175109875"</f>
+        <v>0175109875</v>
+      </c>
+      <c r="N17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>130937</v>
+      </c>
+      <c r="B18" t="str">
+        <f>"601258"</f>
+        <v>601258</v>
+      </c>
+      <c r="C18" t="str">
+        <f>"庞大集团"</f>
+        <v>庞大集团</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="3"/>
+        <v>买入</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>买卖</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="2"/>
+        <v>已成</v>
+      </c>
+      <c r="G18">
+        <v>3.22</v>
+      </c>
+      <c r="H18">
+        <v>1100</v>
+      </c>
+      <c r="I18" t="str">
+        <f>"1659"</f>
+        <v>1659</v>
+      </c>
+      <c r="J18">
+        <v>3.22</v>
+      </c>
+      <c r="K18">
+        <v>1100</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="1"/>
+        <v>买卖</v>
+      </c>
+      <c r="M18" t="str">
+        <f>"A163787833"</f>
+        <v>A163787833</v>
+      </c>
+      <c r="N18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>131037</v>
+      </c>
+      <c r="B19" t="str">
+        <f>"601258"</f>
+        <v>601258</v>
+      </c>
+      <c r="C19" t="str">
+        <f>"庞大集团"</f>
+        <v>庞大集团</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="3"/>
+        <v>买入</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>买卖</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="2"/>
+        <v>已成</v>
+      </c>
+      <c r="G19">
+        <v>3.22</v>
+      </c>
+      <c r="H19">
+        <v>1000</v>
+      </c>
+      <c r="I19" t="str">
+        <f>"1664"</f>
+        <v>1664</v>
+      </c>
+      <c r="J19">
+        <v>3.22</v>
+      </c>
+      <c r="K19">
+        <v>1000</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="1"/>
+        <v>买卖</v>
+      </c>
+      <c r="M19" t="str">
+        <f>"A163787833"</f>
+        <v>A163787833</v>
+      </c>
+      <c r="N19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>131302</v>
+      </c>
+      <c r="B20" t="str">
+        <f>"000830"</f>
+        <v>000830</v>
+      </c>
+      <c r="C20" t="str">
+        <f>"鲁西化工"</f>
+        <v>鲁西化工</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="3"/>
+        <v>买入</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>买卖</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="2"/>
+        <v>已成</v>
+      </c>
+      <c r="G20">
+        <v>6.2</v>
+      </c>
+      <c r="H20">
+        <v>2000</v>
+      </c>
+      <c r="I20" t="str">
+        <f>"1675"</f>
+        <v>1675</v>
+      </c>
+      <c r="J20">
+        <v>6.2</v>
+      </c>
+      <c r="K20">
+        <v>2000</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="1"/>
+        <v>买卖</v>
+      </c>
+      <c r="M20" t="str">
+        <f>"0175109875"</f>
+        <v>0175109875</v>
+      </c>
+      <c r="N20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>133234</v>
+      </c>
+      <c r="B21" t="str">
+        <f>"601258"</f>
+        <v>601258</v>
+      </c>
+      <c r="C21" t="str">
+        <f>"庞大集团"</f>
+        <v>庞大集团</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="3"/>
+        <v>买入</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>买卖</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="2"/>
+        <v>已成</v>
+      </c>
+      <c r="G21">
+        <v>3.23</v>
+      </c>
+      <c r="H21">
+        <v>1000</v>
+      </c>
+      <c r="I21" t="str">
+        <f>"1753"</f>
+        <v>1753</v>
+      </c>
+      <c r="J21">
+        <v>3.23</v>
+      </c>
+      <c r="K21">
+        <v>1000</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="1"/>
+        <v>买卖</v>
+      </c>
+      <c r="M21" t="str">
+        <f>"A163787833"</f>
+        <v>A163787833</v>
+      </c>
+      <c r="N21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>134330</v>
+      </c>
+      <c r="B22" t="str">
+        <f>"601258"</f>
+        <v>601258</v>
+      </c>
+      <c r="C22" t="str">
+        <f>"庞大集团"</f>
+        <v>庞大集团</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="3"/>
+        <v>买入</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>买卖</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="2"/>
+        <v>已成</v>
+      </c>
+      <c r="G22">
+        <v>3.21</v>
+      </c>
+      <c r="H22">
+        <v>1000</v>
+      </c>
+      <c r="I22" t="str">
+        <f>"1817"</f>
+        <v>1817</v>
+      </c>
+      <c r="J22">
+        <v>3.21</v>
+      </c>
+      <c r="K22">
+        <v>1000</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="1"/>
+        <v>买卖</v>
+      </c>
+      <c r="M22" t="str">
+        <f>"A163787833"</f>
+        <v>A163787833</v>
+      </c>
+      <c r="N22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>134733</v>
+      </c>
+      <c r="B23" t="str">
+        <f>"601258"</f>
+        <v>601258</v>
+      </c>
+      <c r="C23" t="str">
+        <f>"庞大集团"</f>
+        <v>庞大集团</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="3"/>
+        <v>买入</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>买卖</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="2"/>
+        <v>已成</v>
+      </c>
+      <c r="G23">
+        <v>3.2</v>
+      </c>
+      <c r="H23">
+        <v>1000</v>
+      </c>
+      <c r="I23" t="str">
+        <f>"1827"</f>
+        <v>1827</v>
+      </c>
+      <c r="J23">
+        <v>3.2</v>
+      </c>
+      <c r="K23">
+        <v>1000</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="1"/>
+        <v>买卖</v>
+      </c>
+      <c r="M23" t="str">
+        <f>"A163787833"</f>
+        <v>A163787833</v>
+      </c>
+      <c r="N23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>135858</v>
+      </c>
+      <c r="B24" t="str">
+        <f>"000830"</f>
+        <v>000830</v>
+      </c>
+      <c r="C24" t="str">
+        <f>"鲁西化工"</f>
+        <v>鲁西化工</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="3"/>
+        <v>买入</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>买卖</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="2"/>
+        <v>已成</v>
+      </c>
+      <c r="G24">
+        <v>6.21</v>
+      </c>
+      <c r="H24">
+        <v>1000</v>
+      </c>
+      <c r="I24" t="str">
+        <f>"1871"</f>
+        <v>1871</v>
+      </c>
+      <c r="J24">
+        <v>6.21</v>
+      </c>
+      <c r="K24">
+        <v>1000</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="1"/>
+        <v>买卖</v>
+      </c>
+      <c r="M24" t="str">
+        <f>"0175109875"</f>
+        <v>0175109875</v>
+      </c>
+      <c r="N24" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
